--- a/Barroc IT - Documentatie/Tom/agenda 08-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/agenda 08-09-2015.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>wie</t>
   </si>
@@ -157,36 +157,18 @@
     <t>Datum: 14-09-2015</t>
   </si>
   <si>
-    <t>Agenda voor wie wat en hoe zal aan gaan pakken.</t>
-  </si>
-  <si>
     <t>Vraag naar fer verduidelijking van het project.</t>
   </si>
   <si>
-    <t>Contactgegevens / groepsafspraken opstellen</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
     <t>Groep</t>
   </si>
   <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Communicatie</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AGENDA Barroc-IT Groep 1 APO</t>
   </si>
   <si>
     <t>Locatie: Lokaal BN0328</t>
   </si>
   <si>
-    <t>Tijd: 8:50 - 9:25</t>
-  </si>
-  <si>
     <t>Voorzitter: Tom</t>
   </si>
   <si>
@@ -200,6 +182,12 @@
   </si>
   <si>
     <t>Vraag aan Fer om verduidelijking van het project.</t>
+  </si>
+  <si>
+    <t>Tijd: 8:50 - 9:30</t>
+  </si>
+  <si>
+    <t>Klachten/Opmerkingen</t>
   </si>
 </sst>
 </file>
@@ -503,7 +491,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -588,6 +576,9 @@
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -621,9 +612,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,7 +926,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,51 +946,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,7 +1023,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="13">
         <v>10</v>
@@ -1044,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
@@ -1052,8 +1043,8 @@
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
-        <v>23</v>
+      <c r="B9" s="76" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="13">
         <v>10</v>
@@ -1064,67 +1055,50 @@
       <c r="E9" s="15">
         <v>2</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>33</v>
+      <c r="F9" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E10" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>25</v>
+      <c r="F10" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="13">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="15">
         <v>4</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>21</v>
-      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13">
-        <v>10</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="15">
         <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
@@ -1132,7 +1106,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
@@ -1144,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="25"/>
@@ -1176,7 +1150,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" s="13">
         <v>10</v>
@@ -1188,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
@@ -1207,7 +1181,7 @@
       <c r="B18" s="32"/>
       <c r="C18" s="33">
         <f>SUM(C8:C17)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>6</v>
@@ -1261,7 +1235,7 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="40" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1276,7 +1250,7 @@
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="46" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1289,7 +1263,7 @@
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="74"/>
+      <c r="F25" s="53"/>
       <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1297,7 +1271,7 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="75"/>
+      <c r="F26" s="54"/>
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,7 +1279,7 @@
       <c r="E27" s="4">
         <v>3</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="53"/>
       <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1288,7 @@
       <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="50"/>
       <c r="H28" s="50"/>
       <c r="I28" s="51"/>
@@ -1339,7 +1313,7 @@
       <c r="E31" s="4">
         <v>7</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="52"/>
       <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1502,6 +1476,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1550,12 +1530,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1565,6 +1539,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1577,18 +1565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Barroc IT - Documentatie/Tom/agenda 08-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/agenda 08-09-2015.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>wie</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Datum: 14-09-2015</t>
-  </si>
-  <si>
-    <t>Vraag naar fer verduidelijking van het project.</t>
   </si>
   <si>
     <t>Groep</t>
@@ -197,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,12 +230,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -295,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -483,15 +474,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -508,77 +633,43 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -595,9 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -612,9 +700,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -926,7 +1061,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +1071,7 @@
     <col min="3" max="3" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
@@ -946,51 +1081,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61" t="s">
+      <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="B4" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1000,257 +1135,251 @@
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="63"/>
+      <c r="F6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="74">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="74">
+        <v>2</v>
+      </c>
+      <c r="F9" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="74">
+        <v>3</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="74">
+        <v>4</v>
+      </c>
+      <c r="F11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="G11" s="59"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="74">
+        <v>5</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="74">
+        <v>6</v>
+      </c>
+      <c r="F13" s="75"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="74">
+        <v>7</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="74">
+        <v>8</v>
+      </c>
+      <c r="F15" s="75"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="74">
+        <v>9</v>
+      </c>
+      <c r="F16" s="78"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="66">
+        <f>SUM(C8:C17)</f>
+        <v>40</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="15">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13">
-        <v>10</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="F20" s="19"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="15">
+      <c r="E21" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="15">
-        <v>5</v>
-      </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15">
-        <v>6</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="15">
-        <v>7</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15">
-        <v>8</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="13">
-        <v>10</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="15">
-        <v>9</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33">
-        <f>SUM(C8:C17)</f>
-        <v>41</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="40" t="s">
+      <c r="E22" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="23" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,28 +1388,28 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
+      <c r="B25" s="24"/>
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="I25" s="49"/>
+      <c r="F25" s="30"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="54"/>
-      <c r="I26" s="49"/>
+      <c r="F26" s="31"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="I27" s="49"/>
+      <c r="F27" s="30"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -1288,73 +1417,73 @@
       <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
-      <c r="I29" s="49"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="F30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
       </c>
-      <c r="F31" s="52"/>
-      <c r="I31" s="49"/>
+      <c r="F31" s="29"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="F32" s="48"/>
-      <c r="I32" s="49"/>
+      <c r="F32" s="25"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="49"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
+      <c r="F34" s="12"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
+      <c r="F35" s="12"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
     </row>
     <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="5"/>
@@ -1476,12 +1605,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1530,6 +1653,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1539,20 +1668,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1565,4 +1680,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Barroc IT - Documentatie/Tom/agenda 08-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/agenda 08-09-2015.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>wie</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Datum: 14-09-2015</t>
+  </si>
+  <si>
+    <t>Vraag naar fer verduidelijking van het project.</t>
   </si>
   <si>
     <t>Groep</t>
@@ -194,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +233,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -286,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -474,149 +483,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -633,43 +508,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -686,6 +595,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -700,56 +612,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1061,7 +926,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +936,7 @@
     <col min="3" max="3" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77" customWidth="1"/>
+    <col min="6" max="6" width="77" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.7109375" customWidth="1"/>
@@ -1081,51 +946,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="41"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="B4" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1135,251 +1000,257 @@
       <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="53"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="10"/>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="13">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="15">
+        <v>3</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="15">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>6</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9">
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="15">
+        <v>7</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="15">
+        <v>8</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15">
+        <v>9</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33">
+        <f>SUM(C8:C17)</f>
+        <v>41</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="37"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="37"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="74">
-        <v>1</v>
-      </c>
-      <c r="F8" s="75" t="s">
+      <c r="E21" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46" t="s">
         <v>24</v>
-      </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="74">
-        <v>2</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="74">
-        <v>3</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="74">
-        <v>4</v>
-      </c>
-      <c r="F11" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="74">
-        <v>5</v>
-      </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="74">
-        <v>6</v>
-      </c>
-      <c r="F13" s="75"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="74">
-        <v>7</v>
-      </c>
-      <c r="F14" s="75"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="74">
-        <v>8</v>
-      </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="74">
-        <v>9</v>
-      </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="65"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="66">
-        <f>SUM(C8:C17)</f>
-        <v>40</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1388,28 +1259,28 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="24"/>
+      <c r="B25" s="47"/>
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="I25" s="26"/>
+      <c r="F25" s="53"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="I26" s="26"/>
+      <c r="F26" s="54"/>
+      <c r="I26" s="49"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="I27" s="26"/>
+      <c r="F27" s="53"/>
+      <c r="I27" s="49"/>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -1417,73 +1288,73 @@
       <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="4">
         <v>6</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="F30" s="48"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="4">
         <v>7</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="I31" s="26"/>
+      <c r="F31" s="52"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="F32" s="25"/>
-      <c r="I32" s="26"/>
+      <c r="F32" s="48"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
+      <c r="F34" s="21"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4">
         <v>2</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
+      <c r="F35" s="21"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="5"/>
@@ -1605,6 +1476,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1653,12 +1530,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1668,6 +1539,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1680,18 +1565,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>